--- a/DataEvaluation/results/preprocessed.xlsx
+++ b/DataEvaluation/results/preprocessed.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\bachelor-arbeit\DataEvaluation\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90BD30C-70D8-4B52-B429-34A708AC57FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -58,6 +52,9 @@
     <t>apply</t>
   </si>
   <si>
+    <t>condition_sum</t>
+  </si>
+  <si>
     <t>find</t>
   </si>
   <si>
@@ -517,7 +514,7 @@
     <t>91-24 98-41 112-66 128-94 138-141 147-168 117-250 130-275 137-299 165-329 276-351 214-325 269-352 258-400 122-276 130-295 156-325 185-353 84-487 108-504 125-531 149-559 154-579</t>
   </si>
   <si>
-    <t>83--1 89-23 104-39 117-69 126-91 116-143 118-163 86-249 98-276 106-299 151-331 255-354 241-397 224-509 222-531 221-559 201-580 192-627 221-598</t>
+    <t>83-1 89-23 104-39 117-69 126-91 116-143 118-163 86-249 98-276 106-299 151-331 255-354 241-397 224-509 222-531 221-559 201-580 192-627 221-598</t>
   </si>
   <si>
     <t>110-13 116-39 118-68 134-93 117-146 122-167 114-250 119-270 119-298 129-328 276-354 254-414 218-512 230-536 240-562</t>
@@ -2006,16 +2003,13 @@
   </si>
   <si>
     <t>5602 8135 9452 16605 18846 19738 21055 21586 23053 24053 26956 29823 30507 30958 31473 31957 32907 33258 34726 36092 39878 40411 40879 41363 41878</t>
-  </si>
-  <si>
-    <t>condition_sum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2074,23 +2068,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2132,7 +2118,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2164,27 +2150,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2216,24 +2184,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2409,16 +2359,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2441,7 +2389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>212</v>
       </c>
@@ -2458,13 +2406,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>245</v>
       </c>
@@ -2478,16 +2426,16 @@
         <v>21078</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>272</v>
       </c>
@@ -2501,16 +2449,16 @@
         <v>81561</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>296</v>
       </c>
@@ -2527,13 +2475,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>302</v>
       </c>
@@ -2547,16 +2495,16 @@
         <v>20310</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>314</v>
       </c>
@@ -2570,16 +2518,16 @@
         <v>11560</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>316</v>
       </c>
@@ -2593,16 +2541,16 @@
         <v>9307</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>201</v>
       </c>
@@ -2610,22 +2558,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>74311</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>238</v>
       </c>
@@ -2633,22 +2581,22 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>24453</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>252</v>
       </c>
@@ -2656,22 +2604,22 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>14922</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>294</v>
       </c>
@@ -2679,22 +2627,22 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>47158</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>302</v>
       </c>
@@ -2702,7 +2650,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>21430</v>
@@ -2711,13 +2659,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>307</v>
       </c>
@@ -2725,7 +2673,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>18464</v>
@@ -2734,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>315</v>
       </c>
@@ -2748,22 +2696,22 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>64315</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>201</v>
       </c>
@@ -2771,22 +2719,22 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>14414</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>213</v>
       </c>
@@ -2794,22 +2742,22 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>24738</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>252</v>
       </c>
@@ -2817,22 +2765,22 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>14418</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>295</v>
       </c>
@@ -2840,22 +2788,22 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>16787</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>302</v>
       </c>
@@ -2863,7 +2811,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>30276</v>
@@ -2872,13 +2820,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>313</v>
       </c>
@@ -2886,22 +2834,22 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>24334</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>316</v>
       </c>
@@ -2909,22 +2857,22 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>7266</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>196</v>
       </c>
@@ -2932,22 +2880,22 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <v>60865</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>199</v>
       </c>
@@ -2955,22 +2903,22 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24">
         <v>66919</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>213</v>
       </c>
@@ -2978,22 +2926,22 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25">
         <v>70783</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>264</v>
       </c>
@@ -3001,22 +2949,22 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <v>14582</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>282</v>
       </c>
@@ -3024,22 +2972,22 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27">
         <v>81518</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>297</v>
       </c>
@@ -3047,22 +2995,22 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28">
         <v>24202</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>308</v>
       </c>
@@ -3070,22 +3018,22 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29">
         <v>12344</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>317</v>
       </c>
@@ -3093,22 +3041,22 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>14927</v>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>320</v>
       </c>
@@ -3116,22 +3064,22 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31">
         <v>13618</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>204</v>
       </c>
@@ -3139,22 +3087,22 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32">
         <v>32886</v>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G32" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>230</v>
       </c>
@@ -3162,22 +3110,22 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33">
         <v>37322</v>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G33" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>282</v>
       </c>
@@ -3185,22 +3133,22 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34">
         <v>63983</v>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>307</v>
       </c>
@@ -3208,22 +3156,22 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35">
         <v>13618</v>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>309</v>
       </c>
@@ -3231,22 +3179,22 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36">
         <v>26699</v>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G36" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>318</v>
       </c>
@@ -3254,22 +3202,22 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37">
         <v>14352</v>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>196</v>
       </c>
@@ -3277,7 +3225,7 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D38">
         <v>36213</v>
@@ -3286,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G38" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>238</v>
       </c>
@@ -3300,22 +3248,22 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D39">
         <v>86407</v>
       </c>
       <c r="E39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>252</v>
       </c>
@@ -3323,22 +3271,22 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D40">
         <v>25672</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G40" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>294</v>
       </c>
@@ -3346,22 +3294,22 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D41">
         <v>72631</v>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G41" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>298</v>
       </c>
@@ -3369,22 +3317,22 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42">
         <v>168549</v>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G42" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>309</v>
       </c>
@@ -3392,22 +3340,22 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D43">
         <v>66241</v>
       </c>
       <c r="E43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G43" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>319</v>
       </c>
@@ -3415,22 +3363,22 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D44">
         <v>36721</v>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G44" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>199</v>
       </c>
@@ -3438,7 +3386,7 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D45">
         <v>193672</v>
@@ -3447,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G45" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>230</v>
       </c>
@@ -3461,22 +3409,22 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D46">
         <v>621287</v>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G46" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>264</v>
       </c>
@@ -3484,22 +3432,22 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D47">
         <v>62054</v>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G47" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>295</v>
       </c>
@@ -3507,22 +3455,22 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D48">
         <v>36387</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>297</v>
       </c>
@@ -3530,22 +3478,22 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D49">
         <v>33760</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G49" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>307</v>
       </c>
@@ -3553,22 +3501,22 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D50">
         <v>37556</v>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G50" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>320</v>
       </c>
@@ -3576,22 +3524,22 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D51">
         <v>43819</v>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G51" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>194</v>
       </c>
@@ -3599,7 +3547,7 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D52">
         <v>16065</v>
@@ -3608,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G52" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>201</v>
       </c>
@@ -3622,22 +3570,22 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D53">
         <v>54441</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G53" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>238</v>
       </c>
@@ -3645,22 +3593,22 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D54">
         <v>25426</v>
       </c>
       <c r="E54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>260</v>
       </c>
@@ -3668,7 +3616,7 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D55">
         <v>108574</v>
@@ -3677,13 +3625,13 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>294</v>
       </c>
@@ -3691,22 +3639,22 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D56">
         <v>31756</v>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>297</v>
       </c>
@@ -3714,22 +3662,22 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D57">
         <v>19024</v>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>314</v>
       </c>
@@ -3737,7 +3685,7 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D58">
         <v>21291</v>
@@ -3746,13 +3694,13 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>317</v>
       </c>
@@ -3760,22 +3708,22 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D59">
         <v>48455</v>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>204</v>
       </c>
@@ -3783,7 +3731,7 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D60">
         <v>10673</v>
@@ -3792,13 +3740,13 @@
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G60" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>230</v>
       </c>
@@ -3806,7 +3754,7 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D61">
         <v>735836</v>
@@ -3815,13 +3763,13 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G61" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>296</v>
       </c>
@@ -3829,7 +3777,7 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D62">
         <v>1723</v>
@@ -3838,13 +3786,13 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G62" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>302</v>
       </c>
@@ -3852,7 +3800,7 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D63">
         <v>49409</v>
@@ -3861,13 +3809,13 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>314</v>
       </c>
@@ -3875,22 +3823,22 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64">
         <v>27615</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G64" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>316</v>
       </c>
@@ -3898,22 +3846,22 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D65">
         <v>33501</v>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>204</v>
       </c>
@@ -3921,22 +3869,22 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D66">
         <v>104063</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>213</v>
       </c>
@@ -3944,22 +3892,22 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D67">
         <v>142377</v>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>264</v>
       </c>
@@ -3967,22 +3915,22 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D68">
         <v>68906</v>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G68" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>282</v>
       </c>
@@ -3990,7 +3938,7 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D69">
         <v>222078</v>
@@ -3999,13 +3947,13 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>298</v>
       </c>
@@ -4013,7 +3961,7 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D70">
         <v>268811</v>
@@ -4022,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G70" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>309</v>
       </c>
@@ -4036,22 +3984,22 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D71">
         <v>35737</v>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>315</v>
       </c>
@@ -4059,22 +4007,22 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D72">
         <v>41174</v>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G72" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>196</v>
       </c>
@@ -4082,7 +4030,7 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D73">
         <v>8814</v>
@@ -4091,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G73" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>238</v>
       </c>
@@ -4105,22 +4053,22 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D74">
         <v>151534</v>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G74" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>272</v>
       </c>
@@ -4128,7 +4076,7 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D75">
         <v>195274</v>
@@ -4137,13 +4085,13 @@
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G75" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>295</v>
       </c>
@@ -4151,7 +4099,7 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D76">
         <v>92742</v>
@@ -4160,13 +4108,13 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G76" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>296</v>
       </c>
@@ -4174,22 +4122,22 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D77">
         <v>78682</v>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>315</v>
       </c>
@@ -4197,22 +4145,22 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D78">
         <v>83243</v>
       </c>
       <c r="E78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G78" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>319</v>
       </c>
@@ -4220,22 +4168,22 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D79">
         <v>61393</v>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G79" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>199</v>
       </c>
@@ -4243,22 +4191,22 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D80">
         <v>86960</v>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G80" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>245</v>
       </c>
@@ -4266,22 +4214,22 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D81">
         <v>97146</v>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G81" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>294</v>
       </c>
@@ -4289,22 +4237,22 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D82">
         <v>76027</v>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G82" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>298</v>
       </c>
@@ -4312,22 +4260,22 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D83">
         <v>223238</v>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G83" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>314</v>
       </c>
@@ -4335,22 +4283,22 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D84">
         <v>31585</v>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G84" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>319</v>
       </c>
@@ -4358,22 +4306,22 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D85">
         <v>35486</v>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G85" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>320</v>
       </c>
@@ -4381,22 +4329,22 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D86">
         <v>45998</v>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G86" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>196</v>
       </c>
@@ -4413,13 +4361,13 @@
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G87" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>201</v>
       </c>
@@ -4433,16 +4381,16 @@
         <v>14423</v>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G88" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>238</v>
       </c>
@@ -4456,16 +4404,16 @@
         <v>44140</v>
       </c>
       <c r="E89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G89" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>264</v>
       </c>
@@ -4482,13 +4430,13 @@
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G90" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>282</v>
       </c>
@@ -4502,16 +4450,16 @@
         <v>427898</v>
       </c>
       <c r="E91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G91" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>298</v>
       </c>
@@ -4525,16 +4473,16 @@
         <v>35573</v>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G92" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>308</v>
       </c>
@@ -4548,16 +4496,16 @@
         <v>20830</v>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G93" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>317</v>
       </c>
@@ -4571,16 +4519,16 @@
         <v>11356</v>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G94" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>194</v>
       </c>
@@ -4588,7 +4536,7 @@
         <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -4597,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>199</v>
       </c>
@@ -4605,22 +4553,22 @@
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D96">
         <v>49620</v>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G96" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>245</v>
       </c>
@@ -4628,22 +4576,22 @@
         <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D97">
         <v>63128</v>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G97" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>282</v>
       </c>
@@ -4651,7 +4599,7 @@
         <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D98">
         <v>19083</v>
@@ -4660,13 +4608,13 @@
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G98" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>298</v>
       </c>
@@ -4674,7 +4622,7 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D99">
         <v>23318</v>
@@ -4683,13 +4631,13 @@
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G99" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>309</v>
       </c>
@@ -4697,22 +4645,22 @@
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D100">
         <v>25427</v>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G100" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>318</v>
       </c>
@@ -4720,22 +4668,22 @@
         <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D101">
         <v>9720</v>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G101" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>199</v>
       </c>
@@ -4743,22 +4691,22 @@
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D102">
         <v>129557</v>
       </c>
       <c r="E102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G102" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>245</v>
       </c>
@@ -4766,22 +4714,22 @@
         <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D103">
         <v>46130</v>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G103" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>294</v>
       </c>
@@ -4789,7 +4737,7 @@
         <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D104">
         <v>43477</v>
@@ -4798,13 +4746,13 @@
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G104" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>298</v>
       </c>
@@ -4812,22 +4760,22 @@
         <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D105">
         <v>50711</v>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G105" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>308</v>
       </c>
@@ -4835,22 +4783,22 @@
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D106">
         <v>14406</v>
       </c>
       <c r="E106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G106" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>320</v>
       </c>
@@ -4858,22 +4806,22 @@
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D107">
         <v>25157</v>
       </c>
       <c r="E107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G107" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>204</v>
       </c>
@@ -4881,22 +4829,22 @@
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D108">
         <v>80165</v>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G108" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>245</v>
       </c>
@@ -4904,22 +4852,22 @@
         <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D109">
         <v>28615</v>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G109" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>252</v>
       </c>
@@ -4927,22 +4875,22 @@
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D110">
         <v>9019</v>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G110" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>294</v>
       </c>
@@ -4950,22 +4898,22 @@
         <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D111">
         <v>38015</v>
       </c>
       <c r="E111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G111" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>302</v>
       </c>
@@ -4973,7 +4921,7 @@
         <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D112">
         <v>89543</v>
@@ -4982,13 +4930,13 @@
         <v>0</v>
       </c>
       <c r="F112" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G112" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>314</v>
       </c>
@@ -4996,22 +4944,22 @@
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D113">
         <v>16255</v>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G113" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>319</v>
       </c>
@@ -5019,22 +4967,22 @@
         <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D114">
         <v>10913</v>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G114" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>196</v>
       </c>
@@ -5042,7 +4990,7 @@
         <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D115">
         <v>56918</v>
@@ -5051,13 +4999,13 @@
         <v>0</v>
       </c>
       <c r="F115" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G115" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>245</v>
       </c>
@@ -5065,22 +5013,22 @@
         <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D116">
         <v>42343</v>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G116" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>272</v>
       </c>
@@ -5088,22 +5036,22 @@
         <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D117">
         <v>88783</v>
       </c>
       <c r="E117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G117" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>296</v>
       </c>
@@ -5111,22 +5059,22 @@
         <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D118">
         <v>43236</v>
       </c>
       <c r="E118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G118" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>302</v>
       </c>
@@ -5134,7 +5082,7 @@
         <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D119">
         <v>66397</v>
@@ -5143,13 +5091,13 @@
         <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G119" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>314</v>
       </c>
@@ -5157,22 +5105,22 @@
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D120">
         <v>17183</v>
       </c>
       <c r="E120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G120" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>317</v>
       </c>
@@ -5180,22 +5128,22 @@
         <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D121">
         <v>23354</v>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G121" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>204</v>
       </c>
@@ -5203,7 +5151,7 @@
         <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D122">
         <v>283058</v>
@@ -5212,13 +5160,13 @@
         <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G122" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>230</v>
       </c>
@@ -5226,7 +5174,7 @@
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D123">
         <v>413863</v>
@@ -5235,13 +5183,13 @@
         <v>0</v>
       </c>
       <c r="F123" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G123" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>282</v>
       </c>
@@ -5249,7 +5197,7 @@
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D124">
         <v>325213</v>
@@ -5258,13 +5206,13 @@
         <v>0</v>
       </c>
       <c r="F124" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G124" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>297</v>
       </c>
@@ -5272,22 +5220,22 @@
         <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D125">
         <v>62533</v>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G125" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>308</v>
       </c>
@@ -5295,22 +5243,22 @@
         <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D126">
         <v>73732</v>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G126" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>315</v>
       </c>
@@ -5318,22 +5266,22 @@
         <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D127">
         <v>64411</v>
       </c>
       <c r="E127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G127" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>320</v>
       </c>
@@ -5341,7 +5289,7 @@
         <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D128">
         <v>43857</v>
@@ -5350,13 +5298,13 @@
         <v>0</v>
       </c>
       <c r="F128" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G128" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>201</v>
       </c>
@@ -5364,22 +5312,22 @@
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D129">
         <v>289703</v>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G129" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>238</v>
       </c>
@@ -5387,22 +5335,22 @@
         <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D130">
         <v>170887</v>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G130" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>252</v>
       </c>
@@ -5410,22 +5358,22 @@
         <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D131">
         <v>57200</v>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G131" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>302</v>
       </c>
@@ -5433,7 +5381,7 @@
         <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D132">
         <v>77850</v>
@@ -5442,13 +5390,13 @@
         <v>0</v>
       </c>
       <c r="F132" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G132" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>309</v>
       </c>
@@ -5456,22 +5404,22 @@
         <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D133">
         <v>77277</v>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G133" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>317</v>
       </c>
@@ -5479,7 +5427,7 @@
         <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D134">
         <v>83874</v>
@@ -5488,13 +5436,13 @@
         <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G134" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>204</v>
       </c>
@@ -5502,22 +5450,22 @@
         <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D135">
         <v>55543</v>
       </c>
       <c r="E135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G135" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>230</v>
       </c>
@@ -5525,22 +5473,22 @@
         <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D136">
         <v>13009</v>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G136" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>264</v>
       </c>
@@ -5548,22 +5496,22 @@
         <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D137">
         <v>19322</v>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G137" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>295</v>
       </c>
@@ -5571,7 +5519,7 @@
         <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D138">
         <v>8027</v>
@@ -5580,13 +5528,13 @@
         <v>0</v>
       </c>
       <c r="F138" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G138" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>296</v>
       </c>
@@ -5594,7 +5542,7 @@
         <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D139">
         <v>5389</v>
@@ -5603,13 +5551,13 @@
         <v>0</v>
       </c>
       <c r="F139" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G139" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>315</v>
       </c>
@@ -5617,22 +5565,22 @@
         <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D140">
         <v>7893</v>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G140" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>316</v>
       </c>
@@ -5640,22 +5588,22 @@
         <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D141">
         <v>9278</v>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G141" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>196</v>
       </c>
@@ -5663,7 +5611,7 @@
         <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D142">
         <v>57610</v>
@@ -5672,13 +5620,13 @@
         <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G142" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>238</v>
       </c>
@@ -5686,7 +5634,7 @@
         <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D143">
         <v>33888</v>
@@ -5695,13 +5643,13 @@
         <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G143" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>272</v>
       </c>
@@ -5709,7 +5657,7 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D144">
         <v>57062</v>
@@ -5718,13 +5666,13 @@
         <v>0</v>
       </c>
       <c r="F144" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G144" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>295</v>
       </c>
@@ -5732,22 +5680,22 @@
         <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D145">
         <v>41656</v>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G145" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>297</v>
       </c>
@@ -5755,22 +5703,22 @@
         <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D146">
         <v>32135</v>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G146" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>315</v>
       </c>
@@ -5778,22 +5726,22 @@
         <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D147">
         <v>23389</v>
       </c>
       <c r="E147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G147" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>199</v>
       </c>
@@ -5801,7 +5749,7 @@
         <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D148">
         <v>136986</v>
@@ -5810,13 +5758,13 @@
         <v>0</v>
       </c>
       <c r="F148" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G148" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>230</v>
       </c>
@@ -5824,22 +5772,22 @@
         <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D149">
         <v>108929</v>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G149" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>296</v>
       </c>
@@ -5847,22 +5795,22 @@
         <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D150">
         <v>31652</v>
       </c>
       <c r="E150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G150" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>306</v>
       </c>
@@ -5870,7 +5818,7 @@
         <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -5879,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>316</v>
       </c>
@@ -5887,22 +5835,22 @@
         <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D152">
         <v>53312</v>
       </c>
       <c r="E152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G152" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>204</v>
       </c>
@@ -5910,22 +5858,22 @@
         <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D153">
         <v>375265</v>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G153" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>252</v>
       </c>
@@ -5933,22 +5881,22 @@
         <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D154">
         <v>77184</v>
       </c>
       <c r="E154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G154" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>294</v>
       </c>
@@ -5956,7 +5904,7 @@
         <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D155">
         <v>121481</v>
@@ -5965,13 +5913,13 @@
         <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G155" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>297</v>
       </c>
@@ -5979,22 +5927,22 @@
         <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D156">
         <v>82023</v>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G156" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>309</v>
       </c>
@@ -6002,22 +5950,22 @@
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D157">
         <v>95510</v>
       </c>
       <c r="E157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G157" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>318</v>
       </c>
@@ -6025,7 +5973,7 @@
         <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D158">
         <v>47900</v>
@@ -6034,13 +5982,13 @@
         <v>0</v>
       </c>
       <c r="F158" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G158" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>320</v>
       </c>
@@ -6048,7 +5996,7 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D159">
         <v>104901</v>
@@ -6057,13 +6005,13 @@
         <v>0</v>
       </c>
       <c r="F159" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G159" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>238</v>
       </c>
@@ -6071,22 +6019,22 @@
         <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D160">
         <v>73821</v>
       </c>
       <c r="E160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G160" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>272</v>
       </c>
@@ -6094,7 +6042,7 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D161">
         <v>147487</v>
@@ -6103,13 +6051,13 @@
         <v>0</v>
       </c>
       <c r="F161" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G161" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>295</v>
       </c>
@@ -6117,22 +6065,22 @@
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D162">
         <v>46188</v>
       </c>
       <c r="E162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G162" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>302</v>
       </c>
@@ -6140,7 +6088,7 @@
         <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D163">
         <v>52876</v>
@@ -6149,13 +6097,13 @@
         <v>0</v>
       </c>
       <c r="F163" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G163" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>307</v>
       </c>
@@ -6163,7 +6111,7 @@
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D164">
         <v>15750</v>
@@ -6172,13 +6120,13 @@
         <v>0</v>
       </c>
       <c r="F164" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G164" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>316</v>
       </c>
@@ -6186,22 +6134,22 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D165">
         <v>46985</v>
       </c>
       <c r="E165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G165" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>204</v>
       </c>
@@ -6215,16 +6163,16 @@
         <v>45368</v>
       </c>
       <c r="E166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G166" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>223</v>
       </c>
@@ -6238,16 +6186,16 @@
         <v>6516</v>
       </c>
       <c r="E167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G167" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>252</v>
       </c>
@@ -6261,16 +6209,16 @@
         <v>4797</v>
       </c>
       <c r="E168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G168" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>295</v>
       </c>
@@ -6287,13 +6235,13 @@
         <v>0</v>
       </c>
       <c r="F169" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G169" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>307</v>
       </c>
@@ -6307,16 +6255,16 @@
         <v>14258</v>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G170" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>309</v>
       </c>
@@ -6330,16 +6278,16 @@
         <v>5178</v>
       </c>
       <c r="E171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G171" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>319</v>
       </c>
@@ -6353,16 +6301,16 @@
         <v>6546</v>
       </c>
       <c r="E172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G172" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>320</v>
       </c>
@@ -6376,16 +6324,16 @@
         <v>7215</v>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G173" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>196</v>
       </c>
@@ -6393,7 +6341,7 @@
         <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D174">
         <v>28548</v>
@@ -6402,13 +6350,13 @@
         <v>0</v>
       </c>
       <c r="F174" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G174" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>230</v>
       </c>
@@ -6416,22 +6364,22 @@
         <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D175">
         <v>217244</v>
       </c>
       <c r="E175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G175" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>272</v>
       </c>
@@ -6439,7 +6387,7 @@
         <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D176">
         <v>108480</v>
@@ -6448,13 +6396,13 @@
         <v>0</v>
       </c>
       <c r="F176" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G176" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>297</v>
       </c>
@@ -6462,22 +6410,22 @@
         <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D177">
         <v>13308</v>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G177" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>313</v>
       </c>
@@ -6485,22 +6433,22 @@
         <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D178">
         <v>21565</v>
       </c>
       <c r="E178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G178" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>316</v>
       </c>
@@ -6508,22 +6456,22 @@
         <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D179">
         <v>31009</v>
       </c>
       <c r="E179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G179" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>196</v>
       </c>
@@ -6531,7 +6479,7 @@
         <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D180">
         <v>114172</v>
@@ -6540,13 +6488,13 @@
         <v>0</v>
       </c>
       <c r="F180" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G180" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>198</v>
       </c>
@@ -6554,7 +6502,7 @@
         <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D181">
         <v>112644</v>
@@ -6563,13 +6511,13 @@
         <v>0</v>
       </c>
       <c r="F181" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G181" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>230</v>
       </c>
@@ -6577,22 +6525,22 @@
         <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D182">
         <v>363020</v>
       </c>
       <c r="E182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G182" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>272</v>
       </c>
@@ -6600,22 +6548,22 @@
         <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D183">
         <v>137212</v>
       </c>
       <c r="E183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G183" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>297</v>
       </c>
@@ -6623,22 +6571,22 @@
         <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D184">
         <v>36194</v>
       </c>
       <c r="E184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G184" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>309</v>
       </c>
@@ -6646,22 +6594,22 @@
         <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D185">
         <v>29396</v>
       </c>
       <c r="E185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G185" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>201</v>
       </c>
@@ -6669,22 +6617,22 @@
         <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D186">
         <v>40420</v>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G186" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>238</v>
       </c>
@@ -6692,22 +6640,22 @@
         <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D187">
         <v>38362</v>
       </c>
       <c r="E187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G187" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>272</v>
       </c>
@@ -6715,22 +6663,22 @@
         <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D188">
         <v>82776</v>
       </c>
       <c r="E188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G188" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>295</v>
       </c>
@@ -6738,22 +6686,22 @@
         <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D189">
         <v>10500</v>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G189" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>298</v>
       </c>
@@ -6761,22 +6709,22 @@
         <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D190">
         <v>83642</v>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G190" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>309</v>
       </c>
@@ -6784,22 +6732,22 @@
         <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D191">
         <v>15597</v>
       </c>
       <c r="E191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G191" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>316</v>
       </c>
@@ -6807,22 +6755,22 @@
         <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D192">
         <v>37028</v>
       </c>
       <c r="E192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G192" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193">
         <v>201</v>
       </c>
@@ -6830,22 +6778,22 @@
         <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D193">
         <v>17237</v>
       </c>
       <c r="E193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G193" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194">
         <v>238</v>
       </c>
@@ -6853,22 +6801,22 @@
         <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D194">
         <v>21476</v>
       </c>
       <c r="E194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G194" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195">
         <v>264</v>
       </c>
@@ -6876,22 +6824,22 @@
         <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D195">
         <v>32285</v>
       </c>
       <c r="E195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G195" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196">
         <v>295</v>
       </c>
@@ -6899,22 +6847,22 @@
         <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D196">
         <v>8747</v>
       </c>
       <c r="E196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G196" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197">
         <v>298</v>
       </c>
@@ -6922,22 +6870,22 @@
         <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D197">
         <v>30628</v>
       </c>
       <c r="E197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G197" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198">
         <v>315</v>
       </c>
@@ -6945,22 +6893,22 @@
         <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D198">
         <v>6642</v>
       </c>
       <c r="E198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G198" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199">
         <v>319</v>
       </c>
@@ -6968,22 +6916,22 @@
         <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D199">
         <v>23587</v>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G199" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200">
         <v>320</v>
       </c>
@@ -6991,22 +6939,22 @@
         <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D200">
         <v>15802</v>
       </c>
       <c r="E200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G200" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201">
         <v>201</v>
       </c>
@@ -7014,22 +6962,22 @@
         <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D201">
         <v>71127</v>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G201" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>245</v>
       </c>
@@ -7037,22 +6985,22 @@
         <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D202">
         <v>142408</v>
       </c>
       <c r="E202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G202" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203">
         <v>264</v>
       </c>
@@ -7060,7 +7008,7 @@
         <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D203">
         <v>69400</v>
@@ -7069,13 +7017,13 @@
         <v>0</v>
       </c>
       <c r="F203" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G203" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204">
         <v>296</v>
       </c>
@@ -7083,7 +7031,7 @@
         <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D204">
         <v>63591</v>
@@ -7092,13 +7040,13 @@
         <v>0</v>
       </c>
       <c r="F204" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G204" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>307</v>
       </c>
@@ -7106,7 +7054,7 @@
         <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D205">
         <v>45407</v>
@@ -7115,13 +7063,13 @@
         <v>0</v>
       </c>
       <c r="F205" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G205" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206">
         <v>313</v>
       </c>
@@ -7129,7 +7077,7 @@
         <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D206">
         <v>31091</v>
@@ -7138,13 +7086,13 @@
         <v>0</v>
       </c>
       <c r="F206" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G206" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207">
         <v>316</v>
       </c>
@@ -7152,7 +7100,7 @@
         <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D207">
         <v>14413</v>
@@ -7161,13 +7109,13 @@
         <v>0</v>
       </c>
       <c r="F207" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G207" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208">
         <v>194</v>
       </c>
@@ -7175,7 +7123,7 @@
         <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -7184,7 +7132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209">
         <v>204</v>
       </c>
@@ -7192,22 +7140,22 @@
         <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D209">
         <v>146510</v>
       </c>
       <c r="E209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G209" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210">
         <v>213</v>
       </c>
@@ -7215,22 +7163,22 @@
         <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D210">
         <v>215009</v>
       </c>
       <c r="E210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G210" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211">
         <v>245</v>
       </c>
@@ -7238,22 +7186,22 @@
         <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D211">
         <v>73780</v>
       </c>
       <c r="E211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G211" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212">
         <v>282</v>
       </c>
@@ -7261,7 +7209,7 @@
         <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D212">
         <v>117836</v>
@@ -7270,13 +7218,13 @@
         <v>0</v>
       </c>
       <c r="F212" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G212" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213">
         <v>296</v>
       </c>
@@ -7284,7 +7232,7 @@
         <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D213">
         <v>32089</v>
@@ -7293,13 +7241,13 @@
         <v>0</v>
       </c>
       <c r="F213" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G213" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214">
         <v>315</v>
       </c>
@@ -7307,22 +7255,22 @@
         <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D214">
         <v>28030</v>
       </c>
       <c r="E214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G214" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215">
         <v>319</v>
       </c>
@@ -7330,22 +7278,22 @@
         <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D215">
         <v>32148</v>
       </c>
       <c r="E215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G215" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216">
         <v>199</v>
       </c>
@@ -7353,22 +7301,22 @@
         <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D216">
         <v>115844</v>
       </c>
       <c r="E216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G216" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217">
         <v>213</v>
       </c>
@@ -7376,22 +7324,22 @@
         <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D217">
         <v>29696</v>
       </c>
       <c r="E217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G217" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218">
         <v>252</v>
       </c>
@@ -7399,22 +7347,22 @@
         <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D218">
         <v>11007</v>
       </c>
       <c r="E218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G218" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219">
         <v>282</v>
       </c>
@@ -7422,7 +7370,7 @@
         <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D219">
         <v>292121</v>
@@ -7431,13 +7379,13 @@
         <v>0</v>
       </c>
       <c r="F219" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G219" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220">
         <v>307</v>
       </c>
@@ -7445,22 +7393,22 @@
         <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D220">
         <v>20682</v>
       </c>
       <c r="E220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G220" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221">
         <v>319</v>
       </c>
@@ -7468,22 +7416,22 @@
         <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D221">
         <v>16217</v>
       </c>
       <c r="E221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G221" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222">
         <v>194</v>
       </c>
@@ -7491,7 +7439,7 @@
         <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -7500,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223">
         <v>199</v>
       </c>
@@ -7508,7 +7456,7 @@
         <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D223">
         <v>75832</v>
@@ -7517,13 +7465,13 @@
         <v>0</v>
       </c>
       <c r="F223" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G223" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224">
         <v>245</v>
       </c>
@@ -7531,22 +7479,22 @@
         <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D224">
         <v>73848</v>
       </c>
       <c r="E224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G224" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225">
         <v>252</v>
       </c>
@@ -7554,22 +7502,22 @@
         <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D225">
         <v>11692</v>
       </c>
       <c r="E225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G225" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226">
         <v>282</v>
       </c>
@@ -7577,22 +7525,22 @@
         <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D226">
         <v>201970</v>
       </c>
       <c r="E226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G226" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227">
         <v>298</v>
       </c>
@@ -7600,22 +7548,22 @@
         <v>9</v>
       </c>
       <c r="C227" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D227">
         <v>78376</v>
       </c>
       <c r="E227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G227" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228">
         <v>319</v>
       </c>
@@ -7623,22 +7571,22 @@
         <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D228">
         <v>9874</v>
       </c>
       <c r="E228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G228" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229">
         <v>320</v>
       </c>
@@ -7646,22 +7594,22 @@
         <v>9</v>
       </c>
       <c r="C229" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D229">
         <v>29936</v>
       </c>
       <c r="E229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G229" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230">
         <v>196</v>
       </c>
@@ -7669,7 +7617,7 @@
         <v>9</v>
       </c>
       <c r="C230" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D230">
         <v>146245</v>
@@ -7678,13 +7626,13 @@
         <v>0</v>
       </c>
       <c r="F230" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G230" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231">
         <v>198</v>
       </c>
@@ -7692,22 +7640,22 @@
         <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D231">
         <v>197104</v>
       </c>
       <c r="E231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G231" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232">
         <v>238</v>
       </c>
@@ -7715,22 +7663,22 @@
         <v>9</v>
       </c>
       <c r="C232" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D232">
         <v>84977</v>
       </c>
       <c r="E232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G232" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233">
         <v>272</v>
       </c>
@@ -7738,7 +7686,7 @@
         <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D233">
         <v>79989</v>
@@ -7747,13 +7695,13 @@
         <v>0</v>
       </c>
       <c r="F233" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G233" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234">
         <v>294</v>
       </c>
@@ -7761,22 +7709,22 @@
         <v>9</v>
       </c>
       <c r="C234" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D234">
         <v>70904</v>
       </c>
       <c r="E234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G234" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235">
         <v>297</v>
       </c>
@@ -7784,22 +7732,22 @@
         <v>9</v>
       </c>
       <c r="C235" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D235">
         <v>44193</v>
       </c>
       <c r="E235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G235" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236">
         <v>308</v>
       </c>
@@ -7807,22 +7755,22 @@
         <v>9</v>
       </c>
       <c r="C236" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D236">
         <v>36792</v>
       </c>
       <c r="E236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G236" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237">
         <v>317</v>
       </c>
@@ -7830,7 +7778,7 @@
         <v>9</v>
       </c>
       <c r="C237" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -7839,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238">
         <v>199</v>
       </c>
@@ -7847,7 +7795,7 @@
         <v>9</v>
       </c>
       <c r="C238" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D238">
         <v>312824</v>
@@ -7856,13 +7804,13 @@
         <v>0</v>
       </c>
       <c r="F238" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G238" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239">
         <v>230</v>
       </c>
@@ -7870,22 +7818,22 @@
         <v>9</v>
       </c>
       <c r="C239" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D239">
         <v>274881</v>
       </c>
       <c r="E239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G239" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240">
         <v>264</v>
       </c>
@@ -7893,22 +7841,22 @@
         <v>9</v>
       </c>
       <c r="C240" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D240">
         <v>106050</v>
       </c>
       <c r="E240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G240" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241">
         <v>302</v>
       </c>
@@ -7916,7 +7864,7 @@
         <v>9</v>
       </c>
       <c r="C241" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D241">
         <v>81779</v>
@@ -7925,13 +7873,13 @@
         <v>0</v>
       </c>
       <c r="F241" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G241" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242">
         <v>308</v>
       </c>
@@ -7939,22 +7887,22 @@
         <v>9</v>
       </c>
       <c r="C242" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D242">
         <v>77454</v>
       </c>
       <c r="E242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G242" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243">
         <v>317</v>
       </c>
@@ -7962,7 +7910,7 @@
         <v>9</v>
       </c>
       <c r="C243" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D243">
         <v>65091</v>
@@ -7971,13 +7919,13 @@
         <v>0</v>
       </c>
       <c r="F243" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G243" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244">
         <v>204</v>
       </c>
@@ -7985,7 +7933,7 @@
         <v>9</v>
       </c>
       <c r="C244" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D244">
         <v>193551</v>
@@ -7994,13 +7942,13 @@
         <v>0</v>
       </c>
       <c r="F244" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G244" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245">
         <v>230</v>
       </c>
@@ -8008,22 +7956,22 @@
         <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D245">
         <v>135938</v>
       </c>
       <c r="E245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G245" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246">
         <v>264</v>
       </c>
@@ -8031,22 +7979,22 @@
         <v>9</v>
       </c>
       <c r="C246" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D246">
         <v>68336</v>
       </c>
       <c r="E246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G246" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247">
         <v>296</v>
       </c>
@@ -8054,22 +8002,22 @@
         <v>9</v>
       </c>
       <c r="C247" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D247">
         <v>39427</v>
       </c>
       <c r="E247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G247" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248">
         <v>306</v>
       </c>
@@ -8077,7 +8025,7 @@
         <v>9</v>
       </c>
       <c r="C248" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -8086,7 +8034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249">
         <v>313</v>
       </c>
@@ -8094,22 +8042,22 @@
         <v>9</v>
       </c>
       <c r="C249" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D249">
         <v>58809</v>
       </c>
       <c r="E249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G249" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250">
         <v>317</v>
       </c>
@@ -8117,7 +8065,7 @@
         <v>9</v>
       </c>
       <c r="C250" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -8126,7 +8074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251">
         <v>199</v>
       </c>
@@ -8140,16 +8088,16 @@
         <v>15769</v>
       </c>
       <c r="E251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G251" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252">
         <v>230</v>
       </c>
@@ -8163,16 +8111,16 @@
         <v>204877</v>
       </c>
       <c r="E252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G252" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253">
         <v>294</v>
       </c>
@@ -8189,13 +8137,13 @@
         <v>0</v>
       </c>
       <c r="F253" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G253" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254">
         <v>297</v>
       </c>
@@ -8212,13 +8160,13 @@
         <v>0</v>
       </c>
       <c r="F254" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G254" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255">
         <v>313</v>
       </c>
@@ -8235,13 +8183,13 @@
         <v>0</v>
       </c>
       <c r="F255" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G255" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256">
         <v>315</v>
       </c>
@@ -8255,16 +8203,16 @@
         <v>4491</v>
       </c>
       <c r="E256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G256" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257">
         <v>204</v>
       </c>
@@ -8272,7 +8220,7 @@
         <v>10</v>
       </c>
       <c r="C257" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D257">
         <v>87702</v>
@@ -8281,13 +8229,13 @@
         <v>0</v>
       </c>
       <c r="F257" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G257" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258">
         <v>264</v>
       </c>
@@ -8295,22 +8243,22 @@
         <v>10</v>
       </c>
       <c r="C258" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D258">
         <v>83239</v>
       </c>
       <c r="E258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F258" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G258" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259">
         <v>295</v>
       </c>
@@ -8318,22 +8266,22 @@
         <v>10</v>
       </c>
       <c r="C259" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D259">
         <v>16991</v>
       </c>
       <c r="E259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F259" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G259" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260">
         <v>296</v>
       </c>
@@ -8341,22 +8289,22 @@
         <v>10</v>
       </c>
       <c r="C260" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D260">
         <v>29398</v>
       </c>
       <c r="E260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F260" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G260" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261">
         <v>314</v>
       </c>
@@ -8364,22 +8312,22 @@
         <v>10</v>
       </c>
       <c r="C261" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D261">
         <v>15617</v>
       </c>
       <c r="E261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F261" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G261" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262">
         <v>319</v>
       </c>
@@ -8387,22 +8335,22 @@
         <v>10</v>
       </c>
       <c r="C262" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D262">
         <v>19371</v>
       </c>
       <c r="E262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F262" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G262" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263">
         <v>320</v>
       </c>
@@ -8410,22 +8358,22 @@
         <v>10</v>
       </c>
       <c r="C263" t="s">
-        <v>662</v>
+        <v>12</v>
       </c>
       <c r="D263">
         <v>42219</v>
       </c>
       <c r="E263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F263" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G263" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264">
         <v>204</v>
       </c>
@@ -8433,7 +8381,7 @@
         <v>10</v>
       </c>
       <c r="C264" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D264">
         <v>3646291</v>
@@ -8442,13 +8390,13 @@
         <v>0</v>
       </c>
       <c r="F264" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G264" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265">
         <v>238</v>
       </c>
@@ -8456,22 +8404,22 @@
         <v>10</v>
       </c>
       <c r="C265" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D265">
         <v>49055</v>
       </c>
       <c r="E265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F265" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G265" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266">
         <v>264</v>
       </c>
@@ -8479,22 +8427,22 @@
         <v>10</v>
       </c>
       <c r="C266" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D266">
         <v>65104</v>
       </c>
       <c r="E266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F266" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G266" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267">
         <v>282</v>
       </c>
@@ -8502,7 +8450,7 @@
         <v>10</v>
       </c>
       <c r="C267" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D267">
         <v>18926</v>
@@ -8511,13 +8459,13 @@
         <v>0</v>
       </c>
       <c r="F267" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G267" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268">
         <v>296</v>
       </c>
@@ -8525,22 +8473,22 @@
         <v>10</v>
       </c>
       <c r="C268" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D268">
         <v>20537</v>
       </c>
       <c r="E268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F268" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G268" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269">
         <v>314</v>
       </c>
@@ -8548,22 +8496,22 @@
         <v>10</v>
       </c>
       <c r="C269" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D269">
         <v>7333</v>
       </c>
       <c r="E269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F269" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G269" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270">
         <v>319</v>
       </c>
@@ -8571,22 +8519,22 @@
         <v>10</v>
       </c>
       <c r="C270" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D270">
         <v>7287</v>
       </c>
       <c r="E270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F270" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G270" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271">
         <v>230</v>
       </c>
@@ -8594,7 +8542,7 @@
         <v>10</v>
       </c>
       <c r="C271" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D271">
         <v>6225</v>
@@ -8603,13 +8551,13 @@
         <v>0</v>
       </c>
       <c r="F271" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G271" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272">
         <v>296</v>
       </c>
@@ -8617,22 +8565,22 @@
         <v>10</v>
       </c>
       <c r="C272" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D272">
         <v>3721</v>
       </c>
       <c r="E272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F272" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G272" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273">
         <v>307</v>
       </c>
@@ -8640,22 +8588,22 @@
         <v>10</v>
       </c>
       <c r="C273" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D273">
         <v>5408</v>
       </c>
       <c r="E273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F273" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G273" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274">
         <v>313</v>
       </c>
@@ -8663,22 +8611,22 @@
         <v>10</v>
       </c>
       <c r="C274" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D274">
         <v>9026</v>
       </c>
       <c r="E274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F274" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G274" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
       <c r="A275">
         <v>315</v>
       </c>
@@ -8686,22 +8634,22 @@
         <v>10</v>
       </c>
       <c r="C275" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D275">
         <v>2943</v>
       </c>
       <c r="E275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F275" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G275" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276">
         <v>199</v>
       </c>
@@ -8709,22 +8657,22 @@
         <v>10</v>
       </c>
       <c r="C276" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D276">
         <v>27811</v>
       </c>
       <c r="E276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F276" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G276" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
       <c r="A277">
         <v>213</v>
       </c>
@@ -8732,22 +8680,22 @@
         <v>10</v>
       </c>
       <c r="C277" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D277">
         <v>59563</v>
       </c>
       <c r="E277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F277" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G277" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
       <c r="A278">
         <v>252</v>
       </c>
@@ -8755,22 +8703,22 @@
         <v>10</v>
       </c>
       <c r="C278" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D278">
         <v>11904</v>
       </c>
       <c r="E278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F278" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G278" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279">
         <v>294</v>
       </c>
@@ -8778,7 +8726,7 @@
         <v>10</v>
       </c>
       <c r="C279" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D279">
         <v>48630</v>
@@ -8787,13 +8735,13 @@
         <v>0</v>
       </c>
       <c r="F279" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G279" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
       <c r="A280">
         <v>297</v>
       </c>
@@ -8801,22 +8749,22 @@
         <v>10</v>
       </c>
       <c r="C280" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D280">
         <v>9604</v>
       </c>
       <c r="E280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F280" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G280" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281">
         <v>308</v>
       </c>
@@ -8824,22 +8772,22 @@
         <v>10</v>
       </c>
       <c r="C281" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D281">
         <v>8526</v>
       </c>
       <c r="E281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F281" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G281" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
       <c r="A282">
         <v>316</v>
       </c>
@@ -8847,22 +8795,22 @@
         <v>10</v>
       </c>
       <c r="C282" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D282">
         <v>16213</v>
       </c>
       <c r="E282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F282" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G282" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283">
         <v>194</v>
       </c>
@@ -8870,7 +8818,7 @@
         <v>10</v>
       </c>
       <c r="C283" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -8879,7 +8827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284">
         <v>199</v>
       </c>
@@ -8887,22 +8835,22 @@
         <v>10</v>
       </c>
       <c r="C284" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D284">
         <v>331647</v>
       </c>
       <c r="E284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F284" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G284" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285">
         <v>272</v>
       </c>
@@ -8910,22 +8858,22 @@
         <v>10</v>
       </c>
       <c r="C285" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D285">
         <v>524433</v>
       </c>
       <c r="E285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F285" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G285" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
       <c r="A286">
         <v>295</v>
       </c>
@@ -8933,22 +8881,22 @@
         <v>10</v>
       </c>
       <c r="C286" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D286">
         <v>30521</v>
       </c>
       <c r="E286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F286" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G286" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
       <c r="A287">
         <v>302</v>
       </c>
@@ -8956,7 +8904,7 @@
         <v>10</v>
       </c>
       <c r="C287" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D287">
         <v>168234</v>
@@ -8965,13 +8913,13 @@
         <v>0</v>
       </c>
       <c r="F287" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G287" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
       <c r="A288">
         <v>314</v>
       </c>
@@ -8979,22 +8927,22 @@
         <v>10</v>
       </c>
       <c r="C288" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D288">
         <v>31475</v>
       </c>
       <c r="E288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F288" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G288" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289">
         <v>318</v>
       </c>
@@ -9002,22 +8950,22 @@
         <v>10</v>
       </c>
       <c r="C289" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D289">
         <v>24496</v>
       </c>
       <c r="E289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F289" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G289" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290">
         <v>196</v>
       </c>
@@ -9025,7 +8973,7 @@
         <v>10</v>
       </c>
       <c r="C290" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D290">
         <v>32870</v>
@@ -9034,13 +8982,13 @@
         <v>0</v>
       </c>
       <c r="F290" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G290" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291">
         <v>272</v>
       </c>
@@ -9048,7 +8996,7 @@
         <v>10</v>
       </c>
       <c r="C291" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D291">
         <v>210480</v>
@@ -9057,13 +9005,13 @@
         <v>0</v>
       </c>
       <c r="F291" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G291" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292">
         <v>294</v>
       </c>
@@ -9071,7 +9019,7 @@
         <v>10</v>
       </c>
       <c r="C292" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D292">
         <v>38015</v>
@@ -9080,13 +9028,13 @@
         <v>0</v>
       </c>
       <c r="F292" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G292" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293">
         <v>298</v>
       </c>
@@ -9094,22 +9042,22 @@
         <v>10</v>
       </c>
       <c r="C293" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D293">
         <v>260290</v>
       </c>
       <c r="E293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F293" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G293" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294">
         <v>314</v>
       </c>
@@ -9117,22 +9065,22 @@
         <v>10</v>
       </c>
       <c r="C294" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D294">
         <v>14014</v>
       </c>
       <c r="E294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F294" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G294" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295">
         <v>316</v>
       </c>
@@ -9140,22 +9088,22 @@
         <v>10</v>
       </c>
       <c r="C295" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D295">
         <v>17106</v>
       </c>
       <c r="E295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F295" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G295" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296">
         <v>196</v>
       </c>
@@ -9163,7 +9111,7 @@
         <v>10</v>
       </c>
       <c r="C296" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D296">
         <v>58910</v>
@@ -9172,13 +9120,13 @@
         <v>0</v>
       </c>
       <c r="F296" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G296" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
       <c r="A297">
         <v>245</v>
       </c>
@@ -9186,22 +9134,22 @@
         <v>10</v>
       </c>
       <c r="C297" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D297">
         <v>49385</v>
       </c>
       <c r="E297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F297" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G297" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
       <c r="A298">
         <v>272</v>
       </c>
@@ -9209,7 +9157,7 @@
         <v>10</v>
       </c>
       <c r="C298" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D298">
         <v>61524</v>
@@ -9218,13 +9166,13 @@
         <v>0</v>
       </c>
       <c r="F298" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G298" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299">
         <v>302</v>
       </c>
@@ -9232,7 +9180,7 @@
         <v>10</v>
       </c>
       <c r="C299" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D299">
         <v>18849</v>
@@ -9241,13 +9189,13 @@
         <v>0</v>
       </c>
       <c r="F299" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G299" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
       <c r="A300">
         <v>309</v>
       </c>
@@ -9255,7 +9203,7 @@
         <v>10</v>
       </c>
       <c r="C300" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D300">
         <v>25925</v>
@@ -9264,13 +9212,13 @@
         <v>0</v>
       </c>
       <c r="F300" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G300" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
       <c r="A301">
         <v>320</v>
       </c>
@@ -9278,7 +9226,7 @@
         <v>10</v>
       </c>
       <c r="C301" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D301">
         <v>34417</v>
@@ -9287,13 +9235,13 @@
         <v>0</v>
       </c>
       <c r="F301" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G301" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
       <c r="A302">
         <v>201</v>
       </c>
@@ -9301,7 +9249,7 @@
         <v>10</v>
       </c>
       <c r="C302" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D302">
         <v>8711</v>
@@ -9310,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="F302" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G302" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303">
         <v>223</v>
       </c>
@@ -9324,7 +9272,7 @@
         <v>10</v>
       </c>
       <c r="C303" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D303">
         <v>6667</v>
@@ -9333,13 +9281,13 @@
         <v>0</v>
       </c>
       <c r="F303" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G303" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
       <c r="A304">
         <v>264</v>
       </c>
@@ -9347,7 +9295,7 @@
         <v>10</v>
       </c>
       <c r="C304" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D304">
         <v>5869</v>
@@ -9356,13 +9304,13 @@
         <v>0</v>
       </c>
       <c r="F304" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G304" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305">
         <v>294</v>
       </c>
@@ -9370,7 +9318,7 @@
         <v>10</v>
       </c>
       <c r="C305" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D305">
         <v>7633</v>
@@ -9379,13 +9327,13 @@
         <v>0</v>
       </c>
       <c r="F305" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G305" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306">
         <v>306</v>
       </c>
@@ -9393,7 +9341,7 @@
         <v>10</v>
       </c>
       <c r="C306" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -9402,7 +9350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7">
       <c r="A307">
         <v>309</v>
       </c>
@@ -9410,22 +9358,22 @@
         <v>10</v>
       </c>
       <c r="C307" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D307">
         <v>14083</v>
       </c>
       <c r="E307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F307" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G307" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308">
         <v>201</v>
       </c>
@@ -9433,22 +9381,22 @@
         <v>10</v>
       </c>
       <c r="C308" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D308">
         <v>57568</v>
       </c>
       <c r="E308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F308" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G308" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309">
         <v>245</v>
       </c>
@@ -9456,22 +9404,22 @@
         <v>10</v>
       </c>
       <c r="C309" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D309">
         <v>139338</v>
       </c>
       <c r="E309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F309" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G309" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310">
         <v>252</v>
       </c>
@@ -9479,22 +9427,22 @@
         <v>10</v>
       </c>
       <c r="C310" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D310">
         <v>33582</v>
       </c>
       <c r="E310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F310" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G310" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311">
         <v>295</v>
       </c>
@@ -9502,22 +9450,22 @@
         <v>10</v>
       </c>
       <c r="C311" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D311">
         <v>39392</v>
       </c>
       <c r="E311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F311" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G311" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312">
         <v>302</v>
       </c>
@@ -9525,7 +9473,7 @@
         <v>10</v>
       </c>
       <c r="C312" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D312">
         <v>153247</v>
@@ -9534,13 +9482,13 @@
         <v>0</v>
       </c>
       <c r="F312" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G312" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
       <c r="A313">
         <v>314</v>
       </c>
@@ -9548,22 +9496,22 @@
         <v>10</v>
       </c>
       <c r="C313" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D313">
         <v>25349</v>
       </c>
       <c r="E313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F313" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G313" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
       <c r="A314">
         <v>319</v>
       </c>
@@ -9571,22 +9519,22 @@
         <v>10</v>
       </c>
       <c r="C314" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D314">
         <v>38458</v>
       </c>
       <c r="E314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F314" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G314" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315">
         <v>320</v>
       </c>
@@ -9594,22 +9542,22 @@
         <v>10</v>
       </c>
       <c r="C315" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D315">
         <v>44837</v>
       </c>
       <c r="E315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F315" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G315" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
       <c r="A316">
         <v>195</v>
       </c>
@@ -9617,7 +9565,7 @@
         <v>10</v>
       </c>
       <c r="C316" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D316">
         <v>50283</v>
@@ -9626,13 +9574,13 @@
         <v>0</v>
       </c>
       <c r="F316" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G316" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
       <c r="A317">
         <v>201</v>
       </c>
@@ -9640,7 +9588,7 @@
         <v>10</v>
       </c>
       <c r="C317" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D317">
         <v>205844</v>
@@ -9649,13 +9597,13 @@
         <v>0</v>
       </c>
       <c r="F317" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G317" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
       <c r="A318">
         <v>223</v>
       </c>
@@ -9663,22 +9611,22 @@
         <v>10</v>
       </c>
       <c r="C318" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D318">
         <v>160976</v>
       </c>
       <c r="E318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F318" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G318" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
       <c r="A319">
         <v>245</v>
       </c>
@@ -9686,22 +9634,22 @@
         <v>10</v>
       </c>
       <c r="C319" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D319">
         <v>153902</v>
       </c>
       <c r="E319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F319" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G319" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
       <c r="A320">
         <v>282</v>
       </c>
@@ -9709,7 +9657,7 @@
         <v>10</v>
       </c>
       <c r="C320" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D320">
         <v>964666</v>
@@ -9718,13 +9666,13 @@
         <v>0</v>
       </c>
       <c r="F320" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G320" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
       <c r="A321">
         <v>314</v>
       </c>
@@ -9732,22 +9680,22 @@
         <v>10</v>
       </c>
       <c r="C321" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D321">
         <v>54744</v>
       </c>
       <c r="E321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F321" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G321" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
       <c r="A322">
         <v>316</v>
       </c>
@@ -9755,22 +9703,22 @@
         <v>10</v>
       </c>
       <c r="C322" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D322">
         <v>52166</v>
       </c>
       <c r="E322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F322" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G322" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
       <c r="A323">
         <v>196</v>
       </c>
@@ -9778,7 +9726,7 @@
         <v>10</v>
       </c>
       <c r="C323" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D323">
         <v>59089</v>
@@ -9787,13 +9735,13 @@
         <v>0</v>
       </c>
       <c r="F323" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G323" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
       <c r="A324">
         <v>201</v>
       </c>
@@ -9801,7 +9749,7 @@
         <v>10</v>
       </c>
       <c r="C324" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D324">
         <v>72124</v>
@@ -9810,13 +9758,13 @@
         <v>0</v>
       </c>
       <c r="F324" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G324" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
       <c r="A325">
         <v>213</v>
       </c>
@@ -9824,7 +9772,7 @@
         <v>10</v>
       </c>
       <c r="C325" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D325">
         <v>153552</v>
@@ -9833,13 +9781,13 @@
         <v>0</v>
       </c>
       <c r="F325" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G325" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
       <c r="A326">
         <v>252</v>
       </c>
@@ -9847,22 +9795,22 @@
         <v>10</v>
       </c>
       <c r="C326" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D326">
         <v>47933</v>
       </c>
       <c r="E326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F326" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G326" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
       <c r="A327">
         <v>282</v>
       </c>
@@ -9870,7 +9818,7 @@
         <v>10</v>
       </c>
       <c r="C327" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D327">
         <v>349729</v>
@@ -9879,13 +9827,13 @@
         <v>0</v>
       </c>
       <c r="F327" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G327" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
       <c r="A328">
         <v>297</v>
       </c>
@@ -9893,22 +9841,22 @@
         <v>10</v>
       </c>
       <c r="C328" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D328">
         <v>48782</v>
       </c>
       <c r="E328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F328" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G328" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
       <c r="A329">
         <v>309</v>
       </c>
@@ -9916,7 +9864,7 @@
         <v>10</v>
       </c>
       <c r="C329" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D329">
         <v>55439</v>
@@ -9925,13 +9873,13 @@
         <v>0</v>
       </c>
       <c r="F329" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G329" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
       <c r="A330">
         <v>315</v>
       </c>
@@ -9939,19 +9887,19 @@
         <v>10</v>
       </c>
       <c r="C330" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D330">
         <v>41878</v>
       </c>
       <c r="E330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F330" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G330" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
